--- a/bases_tfa_2020_completa.xlsx
+++ b/bases_tfa_2020_completa.xlsx
@@ -435,7 +435,7 @@
         <v>96854</v>
       </c>
       <c r="D2">
-        <v>1.342226443925909</v>
+        <v>1.3</v>
       </c>
       <c r="E2">
         <v>882</v>
@@ -444,7 +444,7 @@
         <v>94528</v>
       </c>
       <c r="G2">
-        <v>93.30568720379146</v>
+        <v>93.3</v>
       </c>
       <c r="H2">
         <v>3252</v>
@@ -453,7 +453,7 @@
         <v>96843</v>
       </c>
       <c r="J2">
-        <v>335.8012453145813</v>
+        <v>335.8</v>
       </c>
       <c r="K2">
         <v>4978</v>
@@ -462,7 +462,7 @@
         <v>107870</v>
       </c>
       <c r="M2">
-        <v>461.4814128117179</v>
+        <v>461.5</v>
       </c>
     </row>
     <row r="3">
@@ -476,7 +476,7 @@
         <v>669281</v>
       </c>
       <c r="D3">
-        <v>4.31806670143034</v>
+        <v>4.3</v>
       </c>
       <c r="E3">
         <v>16711</v>
@@ -485,7 +485,7 @@
         <v>641594</v>
       </c>
       <c r="G3">
-        <v>260.4606651558462</v>
+        <v>260.5</v>
       </c>
       <c r="H3">
         <v>41441</v>
@@ -494,7 +494,7 @@
         <v>632456</v>
       </c>
       <c r="J3">
-        <v>655.2392577507368</v>
+        <v>655.2</v>
       </c>
       <c r="K3">
         <v>45950</v>
@@ -503,7 +503,7 @@
         <v>655516</v>
       </c>
       <c r="M3">
-        <v>700.9744994782736</v>
+        <v>701</v>
       </c>
     </row>
     <row r="4">
@@ -517,7 +517,7 @@
         <v>16197</v>
       </c>
       <c r="D4">
-        <v>7.408779403593258</v>
+        <v>7.4</v>
       </c>
       <c r="E4">
         <v>538</v>
@@ -526,7 +526,7 @@
         <v>17707</v>
       </c>
       <c r="G4">
-        <v>303.8346416671373</v>
+        <v>303.8</v>
       </c>
       <c r="H4">
         <v>1253</v>
@@ -535,7 +535,7 @@
         <v>18025</v>
       </c>
       <c r="J4">
-        <v>695.1456310679612</v>
+        <v>695.1</v>
       </c>
       <c r="K4">
         <v>1263</v>
@@ -544,7 +544,7 @@
         <v>16554</v>
       </c>
       <c r="M4">
-        <v>762.957593330917</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5">
@@ -558,7 +558,7 @@
         <v>132869</v>
       </c>
       <c r="D5">
-        <v>4.590988116114368</v>
+        <v>4.6</v>
       </c>
       <c r="E5">
         <v>3885</v>
@@ -567,7 +567,7 @@
         <v>136740</v>
       </c>
       <c r="G5">
-        <v>284.1158402808249</v>
+        <v>284.1</v>
       </c>
       <c r="H5">
         <v>9421</v>
@@ -576,7 +576,7 @@
         <v>146153</v>
       </c>
       <c r="J5">
-        <v>644.5984687279769</v>
+        <v>644.6</v>
       </c>
       <c r="K5">
         <v>10810</v>
@@ -585,7 +585,7 @@
         <v>149956</v>
       </c>
       <c r="M5">
-        <v>720.8781242497799</v>
+        <v>720.9</v>
       </c>
     </row>
     <row r="6">
@@ -599,7 +599,7 @@
         <v>44868</v>
       </c>
       <c r="D6">
-        <v>15.60131942587145</v>
+        <v>15.6</v>
       </c>
       <c r="E6">
         <v>2238</v>
@@ -608,7 +608,7 @@
         <v>45040</v>
       </c>
       <c r="G6">
-        <v>496.8916518650089</v>
+        <v>496.9</v>
       </c>
       <c r="H6">
         <v>4309</v>
@@ -617,7 +617,7 @@
         <v>50520</v>
       </c>
       <c r="J6">
-        <v>852.9295328582739</v>
+        <v>852.9</v>
       </c>
       <c r="K6">
         <v>4188</v>
@@ -626,7 +626,7 @@
         <v>48811</v>
       </c>
       <c r="M6">
-        <v>858.003318924013</v>
+        <v>858</v>
       </c>
     </row>
     <row r="7">
@@ -640,7 +640,7 @@
         <v>50802</v>
       </c>
       <c r="D7">
-        <v>24.99901578678005</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>2729</v>
@@ -649,7 +649,7 @@
         <v>51423</v>
       </c>
       <c r="G7">
-        <v>530.6963809968302</v>
+        <v>530.7</v>
       </c>
       <c r="H7">
         <v>4849</v>
@@ -658,7 +658,7 @@
         <v>55410</v>
       </c>
       <c r="J7">
-        <v>875.1127955242737</v>
+        <v>875.1</v>
       </c>
       <c r="K7">
         <v>4742</v>
@@ -667,7 +667,7 @@
         <v>52685</v>
       </c>
       <c r="M7">
-        <v>900.0664325709405</v>
+        <v>900.1</v>
       </c>
     </row>
     <row r="8">
@@ -681,7 +681,7 @@
         <v>24332</v>
       </c>
       <c r="D8">
-        <v>3.698832812756863</v>
+        <v>3.7</v>
       </c>
       <c r="E8">
         <v>537</v>
@@ -690,7 +690,7 @@
         <v>23828</v>
       </c>
       <c r="G8">
-        <v>225.3651166694645</v>
+        <v>225.4</v>
       </c>
       <c r="H8">
         <v>1572</v>
@@ -699,7 +699,7 @@
         <v>23007</v>
       </c>
       <c r="J8">
-        <v>683.2703090363802</v>
+        <v>683.3</v>
       </c>
       <c r="K8">
         <v>1831</v>
@@ -708,7 +708,7 @@
         <v>23062</v>
       </c>
       <c r="M8">
-        <v>793.9467522331107</v>
+        <v>793.9</v>
       </c>
     </row>
     <row r="9">
@@ -722,7 +722,7 @@
         <v>52424</v>
       </c>
       <c r="D9">
-        <v>9.537616358919578</v>
+        <v>9.5</v>
       </c>
       <c r="E9">
         <v>1886</v>
@@ -731,7 +731,7 @@
         <v>54026</v>
       </c>
       <c r="G9">
-        <v>349.0911783215489</v>
+        <v>349.1</v>
       </c>
       <c r="H9">
         <v>3980</v>
@@ -740,7 +740,7 @@
         <v>55622</v>
       </c>
       <c r="J9">
-        <v>715.5442091258853</v>
+        <v>715.5</v>
       </c>
       <c r="K9">
         <v>4225</v>
@@ -749,7 +749,7 @@
         <v>53169</v>
       </c>
       <c r="M9">
-        <v>794.6359720889992</v>
+        <v>794.6</v>
       </c>
     </row>
     <row r="10">
@@ -763,7 +763,7 @@
         <v>25997</v>
       </c>
       <c r="D10">
-        <v>35.00403892756857</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>1509</v>
@@ -772,7 +772,7 @@
         <v>27024</v>
       </c>
       <c r="G10">
-        <v>558.392539964476</v>
+        <v>558.4</v>
       </c>
       <c r="H10">
         <v>2566</v>
@@ -781,7 +781,7 @@
         <v>27780</v>
       </c>
       <c r="J10">
-        <v>923.686105111591</v>
+        <v>923.7</v>
       </c>
       <c r="K10">
         <v>2291</v>
@@ -790,7 +790,7 @@
         <v>25411</v>
       </c>
       <c r="M10">
-        <v>901.578056747078</v>
+        <v>901.6</v>
       </c>
     </row>
     <row r="11">
@@ -804,7 +804,7 @@
         <v>31697</v>
       </c>
       <c r="D11">
-        <v>9.464618102659557</v>
+        <v>9.5</v>
       </c>
       <c r="E11">
         <v>980</v>
@@ -813,7 +813,7 @@
         <v>33389</v>
       </c>
       <c r="G11">
-        <v>293.5098385695888</v>
+        <v>293.5</v>
       </c>
       <c r="H11">
         <v>2182</v>
@@ -822,7 +822,7 @@
         <v>33299</v>
       </c>
       <c r="J11">
-        <v>655.2749331811766</v>
+        <v>655.3</v>
       </c>
       <c r="K11">
         <v>2353</v>
@@ -831,7 +831,7 @@
         <v>31842</v>
       </c>
       <c r="M11">
-        <v>738.9611205326299</v>
+        <v>739</v>
       </c>
     </row>
     <row r="12">
@@ -845,7 +845,7 @@
         <v>13157</v>
       </c>
       <c r="D12">
-        <v>3.040206734057916</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>273</v>
@@ -854,7 +854,7 @@
         <v>13327</v>
       </c>
       <c r="G12">
-        <v>204.8473024686726</v>
+        <v>204.8</v>
       </c>
       <c r="H12">
         <v>891</v>
@@ -863,7 +863,7 @@
         <v>13126</v>
       </c>
       <c r="J12">
-        <v>678.805424348621</v>
+        <v>678.8</v>
       </c>
       <c r="K12">
         <v>957</v>
@@ -872,7 +872,7 @@
         <v>13229</v>
       </c>
       <c r="M12">
-        <v>723.410688638597</v>
+        <v>723.4</v>
       </c>
     </row>
     <row r="13">
@@ -886,7 +886,7 @@
         <v>14848</v>
       </c>
       <c r="D13">
-        <v>6.734913793103448</v>
+        <v>6.7</v>
       </c>
       <c r="E13">
         <v>417</v>
@@ -895,7 +895,7 @@
         <v>15859</v>
       </c>
       <c r="G13">
-        <v>262.9421779431238</v>
+        <v>262.9</v>
       </c>
       <c r="H13">
         <v>1097</v>
@@ -904,7 +904,7 @@
         <v>17146</v>
       </c>
       <c r="J13">
-        <v>639.7993701154788</v>
+        <v>639.8</v>
       </c>
       <c r="K13">
         <v>1292</v>
@@ -913,7 +913,7 @@
         <v>18025</v>
       </c>
       <c r="M13">
-        <v>716.7822468793344</v>
+        <v>716.8</v>
       </c>
     </row>
     <row r="14">
@@ -927,7 +927,7 @@
         <v>76557</v>
       </c>
       <c r="D14">
-        <v>4.571756991522657</v>
+        <v>4.6</v>
       </c>
       <c r="E14">
         <v>1905</v>
@@ -936,7 +936,7 @@
         <v>74152</v>
       </c>
       <c r="G14">
-        <v>256.9047362174992</v>
+        <v>256.9</v>
       </c>
       <c r="H14">
         <v>5435</v>
@@ -945,7 +945,7 @@
         <v>75312</v>
       </c>
       <c r="J14">
-        <v>721.6645421712343</v>
+        <v>721.7</v>
       </c>
       <c r="K14">
         <v>6306</v>
@@ -954,7 +954,7 @@
         <v>78366</v>
       </c>
       <c r="M14">
-        <v>804.6857055355639</v>
+        <v>804.7</v>
       </c>
     </row>
     <row r="15">
@@ -968,7 +968,7 @@
         <v>55571</v>
       </c>
       <c r="D15">
-        <v>24.65314642529377</v>
+        <v>24.7</v>
       </c>
       <c r="E15">
         <v>3196</v>
@@ -977,7 +977,7 @@
         <v>57714</v>
       </c>
       <c r="G15">
-        <v>553.7651176490973</v>
+        <v>553.8</v>
       </c>
       <c r="H15">
         <v>5756</v>
@@ -986,7 +986,7 @@
         <v>58394</v>
       </c>
       <c r="J15">
-        <v>985.7177107237045</v>
+        <v>985.7</v>
       </c>
       <c r="K15">
         <v>5367</v>
@@ -995,7 +995,7 @@
         <v>53316</v>
       </c>
       <c r="M15">
-        <v>1006.639657888814</v>
+        <v>1006.6</v>
       </c>
     </row>
     <row r="16">
@@ -1009,7 +1009,7 @@
         <v>26587</v>
       </c>
       <c r="D16">
-        <v>3.761236694625193</v>
+        <v>3.8</v>
       </c>
       <c r="E16">
         <v>679</v>
@@ -1018,7 +1018,7 @@
         <v>25323</v>
       </c>
       <c r="G16">
-        <v>268.1356869249299</v>
+        <v>268.1</v>
       </c>
       <c r="H16">
         <v>1721</v>
@@ -1027,7 +1027,7 @@
         <v>24739</v>
       </c>
       <c r="J16">
-        <v>695.6627187841061</v>
+        <v>695.7</v>
       </c>
       <c r="K16">
         <v>2207</v>
@@ -1036,7 +1036,7 @@
         <v>25583</v>
       </c>
       <c r="M16">
-        <v>862.6822499315952</v>
+        <v>862.7</v>
       </c>
     </row>
     <row r="17">
@@ -1050,7 +1050,7 @@
         <v>28485</v>
       </c>
       <c r="D17">
-        <v>6.31911532385466</v>
+        <v>6.3</v>
       </c>
       <c r="E17">
         <v>711</v>
@@ -1059,7 +1059,7 @@
         <v>28581</v>
       </c>
       <c r="G17">
-        <v>248.7666631678388</v>
+        <v>248.8</v>
       </c>
       <c r="H17">
         <v>2018</v>
@@ -1068,7 +1068,7 @@
         <v>28140</v>
       </c>
       <c r="J17">
-        <v>717.1286425017769</v>
+        <v>717.1</v>
       </c>
       <c r="K17">
         <v>2249</v>
@@ -1077,7 +1077,7 @@
         <v>28502</v>
       </c>
       <c r="M17">
-        <v>789.0674338642903</v>
+        <v>789.1</v>
       </c>
     </row>
     <row r="18">
@@ -1091,7 +1091,7 @@
         <v>62758</v>
       </c>
       <c r="D18">
-        <v>13.54408999649447</v>
+        <v>13.5</v>
       </c>
       <c r="E18">
         <v>2436</v>
@@ -1100,7 +1100,7 @@
         <v>63062</v>
       </c>
       <c r="G18">
-        <v>386.2865116869113</v>
+        <v>386.3</v>
       </c>
       <c r="H18">
         <v>4432</v>
@@ -1109,7 +1109,7 @@
         <v>63018</v>
       </c>
       <c r="J18">
-        <v>703.2911231711576</v>
+        <v>703.3</v>
       </c>
       <c r="K18">
         <v>4573</v>
@@ -1118,7 +1118,7 @@
         <v>59766</v>
       </c>
       <c r="M18">
-        <v>765.1507546096442</v>
+        <v>765.2</v>
       </c>
     </row>
     <row r="19">
@@ -1132,7 +1132,7 @@
         <v>32467</v>
       </c>
       <c r="D19">
-        <v>10.16416669233375</v>
+        <v>10.2</v>
       </c>
       <c r="E19">
         <v>1314</v>
@@ -1141,7 +1141,7 @@
         <v>32103</v>
       </c>
       <c r="G19">
-        <v>409.3075413512756</v>
+        <v>409.3</v>
       </c>
       <c r="H19">
         <v>2785</v>
@@ -1150,7 +1150,7 @@
         <v>31774</v>
       </c>
       <c r="J19">
-        <v>876.5028010322906</v>
+        <v>876.5</v>
       </c>
       <c r="K19">
         <v>2986</v>
@@ -1159,7 +1159,7 @@
         <v>31192</v>
       </c>
       <c r="M19">
-        <v>957.2967427545524</v>
+        <v>957.3</v>
       </c>
     </row>
     <row r="20">
@@ -1173,7 +1173,7 @@
         <v>19629</v>
       </c>
       <c r="D20">
-        <v>5.603953334352235</v>
+        <v>5.6</v>
       </c>
       <c r="E20">
         <v>605</v>
@@ -1182,7 +1182,7 @@
         <v>20786</v>
       </c>
       <c r="G20">
-        <v>291.0612912537284</v>
+        <v>291.1</v>
       </c>
       <c r="H20">
         <v>1453</v>
@@ -1191,7 +1191,7 @@
         <v>21123</v>
       </c>
       <c r="J20">
-        <v>687.8757752213227</v>
+        <v>687.9</v>
       </c>
       <c r="K20">
         <v>1576</v>
@@ -1200,7 +1200,7 @@
         <v>20117</v>
       </c>
       <c r="M20">
-        <v>783.4170104886415</v>
+        <v>783.4</v>
       </c>
     </row>
     <row r="21">
@@ -1214,7 +1214,7 @@
         <v>15558</v>
       </c>
       <c r="D21">
-        <v>5.142049106568968</v>
+        <v>5.1</v>
       </c>
       <c r="E21">
         <v>349</v>
@@ -1223,7 +1223,7 @@
         <v>14900</v>
       </c>
       <c r="G21">
-        <v>234.2281879194631</v>
+        <v>234.2</v>
       </c>
       <c r="H21">
         <v>997</v>
@@ -1232,7 +1232,7 @@
         <v>13504</v>
       </c>
       <c r="J21">
-        <v>738.2997630331753</v>
+        <v>738.3</v>
       </c>
       <c r="K21">
         <v>1187</v>
@@ -1241,7 +1241,7 @@
         <v>13962</v>
       </c>
       <c r="M21">
-        <v>850.1647328462971</v>
+        <v>850.2</v>
       </c>
     </row>
     <row r="22">
@@ -1255,7 +1255,7 @@
         <v>126246</v>
       </c>
       <c r="D22">
-        <v>7.604201321229979</v>
+        <v>7.6</v>
       </c>
       <c r="E22">
         <v>3960</v>
@@ -1264,7 +1264,7 @@
         <v>122537</v>
       </c>
       <c r="G22">
-        <v>323.1676962876519</v>
+        <v>323.2</v>
       </c>
       <c r="H22">
         <v>8618</v>
@@ -1273,7 +1273,7 @@
         <v>131446</v>
       </c>
       <c r="J22">
-        <v>655.6304490056754</v>
+        <v>655.6</v>
       </c>
       <c r="K22">
         <v>9594</v>
@@ -1282,7 +1282,7 @@
         <v>138670</v>
       </c>
       <c r="M22">
-        <v>691.8583687892119</v>
+        <v>691.9</v>
       </c>
     </row>
     <row r="23">
@@ -1296,7 +1296,7 @@
         <v>41282</v>
       </c>
       <c r="D23">
-        <v>9.447216704617025</v>
+        <v>9.4</v>
       </c>
       <c r="E23">
         <v>1791</v>
@@ -1305,7 +1305,7 @@
         <v>44237</v>
       </c>
       <c r="G23">
-        <v>404.8647060153265</v>
+        <v>404.9</v>
       </c>
       <c r="H23">
         <v>3508</v>
@@ -1314,7 +1314,7 @@
         <v>45531</v>
       </c>
       <c r="J23">
-        <v>770.4640794184182</v>
+        <v>770.5</v>
       </c>
       <c r="K23">
         <v>3546</v>
@@ -1323,7 +1323,7 @@
         <v>40881</v>
       </c>
       <c r="M23">
-        <v>867.3956116533353</v>
+        <v>867.4</v>
       </c>
     </row>
     <row r="24">
@@ -1337,7 +1337,7 @@
         <v>68045</v>
       </c>
       <c r="D24">
-        <v>7.34807847747814</v>
+        <v>7.3</v>
       </c>
       <c r="E24">
         <v>2270</v>
@@ -1346,7 +1346,7 @@
         <v>68818</v>
       </c>
       <c r="G24">
-        <v>329.8555610450754</v>
+        <v>329.9</v>
       </c>
       <c r="H24">
         <v>5428</v>
@@ -1355,7 +1355,7 @@
         <v>72324</v>
       </c>
       <c r="J24">
-        <v>750.5115867485206</v>
+        <v>750.5</v>
       </c>
       <c r="K24">
         <v>5641</v>
@@ -1364,7 +1364,7 @@
         <v>71375</v>
       </c>
       <c r="M24">
-        <v>790.3327495621717</v>
+        <v>790.3</v>
       </c>
     </row>
     <row r="25">
@@ -1378,7 +1378,7 @@
         <v>6865</v>
       </c>
       <c r="D25">
-        <v>2.91332847778587</v>
+        <v>2.9</v>
       </c>
       <c r="E25">
         <v>110</v>
@@ -1387,7 +1387,7 @@
         <v>7210</v>
       </c>
       <c r="G25">
-        <v>152.5658807212205</v>
+        <v>152.6</v>
       </c>
       <c r="H25">
         <v>368</v>
@@ -1396,7 +1396,7 @@
         <v>6625</v>
       </c>
       <c r="J25">
-        <v>555.4716981132076</v>
+        <v>555.5</v>
       </c>
       <c r="K25">
         <v>497</v>
@@ -1405,7 +1405,7 @@
         <v>6897</v>
       </c>
       <c r="M25">
-        <v>720.6031607945483</v>
+        <v>720.6</v>
       </c>
     </row>
     <row r="26">
